--- a/导表工具/J-爵位系统配置.xlsx
+++ b/导表工具/J-爵位系统配置.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="24180" windowHeight="13050" tabRatio="842" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12690" tabRatio="842" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="历练基础配置" sheetId="3" r:id="rId1"/>
@@ -13,6 +13,7 @@
     <sheet name="官印等级奖励" sheetId="5" r:id="rId4"/>
     <sheet name="历练每日奖励" sheetId="6" r:id="rId5"/>
     <sheet name="备注" sheetId="4" r:id="rId6"/>
+    <sheet name="不知道什么表" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -130,8 +131,65 @@
 </comments>
 </file>
 
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Administrator</author>
+  </authors>
+  <commentList>
+    <comment ref="B5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+当前天数向前匹配最近的天数。
+例如配置天数：1、7、14、30
+如果第15天，则取14天的奖励。
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+当天里有多个档次的奖励</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1055">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3550" uniqueCount="1060">
   <si>
     <t>导出类型</t>
   </si>
@@ -3364,42 +3422,39 @@
   <si>
     <t>皇爵</t>
   </si>
+  <si>
+    <t>TrainStageConfig={</t>
+  </si>
+  <si>
+    <t>train/trainstage.config</t>
+  </si>
+  <si>
+    <t>stage</t>
+  </si>
+  <si>
+    <t>{{type=1,id=200001,value=1},{type=0,id=1,value=10}}</t>
+  </si>
+  <si>
+    <t>{{type=1,id=200001,value=2},{type=0,id=1,value=20}}</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="42">
+  <fonts count="44">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -3412,6 +3467,12 @@
       <b/>
       <sz val="9"/>
       <color rgb="FF0070C0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -3437,6 +3498,18 @@
       <sz val="11"/>
       <color rgb="FF0070C0"/>
       <name val="华文中宋"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
@@ -3513,6 +3586,63 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -3521,9 +3651,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3531,7 +3677,29 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3545,85 +3713,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -3641,30 +3730,25 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="9"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -3675,12 +3759,6 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -3704,6 +3782,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFC0C0C0"/>
         <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
@@ -3756,7 +3840,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3768,55 +4002,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3828,115 +4014,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3947,21 +4031,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFE6E6E6"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFE6E6E6"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFE6E6E6"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFE6E6E6"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -4063,6 +4132,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color rgb="FFE6E6E6"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFE6E6E6"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFE6E6E6"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFE6E6E6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="23"/>
       </left>
@@ -4113,6 +4197,59 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -4157,306 +4294,253 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="32" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="15" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="23" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="23" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="45" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -4472,33 +4556,33 @@
     <xf numFmtId="0" fontId="15" fillId="11" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="5" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyAlignment="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -4521,14 +4605,14 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -4537,19 +4621,19 @@
     <xf numFmtId="0" fontId="20" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4564,17 +4648,17 @@
     <xf numFmtId="0" fontId="14" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="53">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -5037,8 +5121,8 @@
       </c>
       <c r="E7" s="77"/>
       <c r="F7" s="77"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="75" t="s">
@@ -5060,47 +5144,47 @@
     </row>
     <row r="11" ht="14.25"/>
     <row r="12" ht="14.25" spans="7:8">
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
     </row>
     <row r="13" ht="14.25" spans="7:8">
-      <c r="G13" s="3"/>
-      <c r="H13" s="1"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="21"/>
     </row>
     <row r="14" ht="14.25" spans="7:8">
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
     </row>
     <row r="15" ht="14.25" spans="7:8">
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
     </row>
     <row r="16" ht="14.25" spans="7:8">
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
     </row>
     <row r="17" ht="14.25" spans="7:8">
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
     </row>
     <row r="18" ht="14.25" spans="7:8">
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
     </row>
     <row r="19" ht="14.25" spans="7:8">
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
     </row>
     <row r="20" ht="14.25" spans="7:8">
-      <c r="G20" s="3"/>
-      <c r="H20" s="1"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="21"/>
     </row>
     <row r="21" ht="14.25" spans="7:8">
-      <c r="G21" s="3"/>
-      <c r="H21" s="1"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="21"/>
     </row>
     <row r="22" ht="14.25" spans="8:8">
-      <c r="H22" s="1"/>
+      <c r="H22" s="21"/>
     </row>
     <row r="23" spans="8:8">
       <c r="H23" s="79"/>
@@ -5116,7 +5200,7 @@
   <sheetPr/>
   <dimension ref="A1:J908"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E295" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="M307" sqref="M307"/>
     </sheetView>
   </sheetViews>
@@ -30637,7 +30721,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="8" ht="15.75" spans="2:7">
+    <row r="8" spans="2:7">
       <c r="B8">
         <v>1</v>
       </c>
@@ -30657,7 +30741,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="9" ht="15.75" spans="2:7">
+    <row r="9" spans="2:7">
       <c r="B9">
         <v>2</v>
       </c>
@@ -30677,7 +30761,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="10" ht="15.75" spans="2:7">
+    <row r="10" spans="2:7">
       <c r="B10">
         <v>3</v>
       </c>
@@ -30697,7 +30781,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="11" ht="15.75" spans="2:7">
+    <row r="11" spans="2:7">
       <c r="B11">
         <v>4</v>
       </c>
@@ -30717,7 +30801,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="12" ht="15.75" spans="2:7">
+    <row r="12" spans="2:7">
       <c r="B12">
         <v>5</v>
       </c>
@@ -30737,7 +30821,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="13" ht="15.75" spans="2:7">
+    <row r="13" spans="2:7">
       <c r="B13">
         <v>6</v>
       </c>
@@ -30757,7 +30841,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="14" ht="15.75" spans="2:7">
+    <row r="14" spans="2:7">
       <c r="B14">
         <v>7</v>
       </c>
@@ -30777,7 +30861,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="15" ht="15.75" spans="2:7">
+    <row r="15" spans="2:7">
       <c r="B15">
         <v>8</v>
       </c>
@@ -30797,7 +30881,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="16" ht="15.75" spans="2:7">
+    <row r="16" spans="2:7">
       <c r="B16">
         <v>9</v>
       </c>
@@ -30817,7 +30901,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="17" ht="15.75" spans="2:7">
+    <row r="17" spans="2:7">
       <c r="B17">
         <v>10</v>
       </c>
@@ -30837,7 +30921,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="18" ht="15.75" spans="2:7">
+    <row r="18" spans="2:7">
       <c r="B18">
         <v>11</v>
       </c>
@@ -30857,66 +30941,66 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="19" ht="15.75" spans="3:5">
+    <row r="19" spans="3:5">
       <c r="C19" s="49"/>
       <c r="D19" s="49"/>
       <c r="E19" s="51"/>
     </row>
-    <row r="20" ht="15.75" spans="3:5">
+    <row r="20" spans="3:5">
       <c r="C20" s="49"/>
       <c r="D20" s="49"/>
       <c r="E20" s="51"/>
     </row>
-    <row r="21" ht="15.75" spans="3:5">
+    <row r="21" spans="3:5">
       <c r="C21" s="49"/>
       <c r="D21" s="49"/>
       <c r="E21" s="51"/>
     </row>
-    <row r="22" ht="15.75" spans="3:5">
+    <row r="22" spans="3:5">
       <c r="C22" s="49"/>
       <c r="D22" s="49"/>
       <c r="E22" s="51"/>
     </row>
-    <row r="23" ht="15.75" spans="3:5">
+    <row r="23" spans="3:5">
       <c r="C23" s="49"/>
       <c r="D23" s="49"/>
       <c r="E23" s="51"/>
     </row>
-    <row r="24" ht="15.75" spans="3:5">
+    <row r="24" spans="3:5">
       <c r="C24" s="49"/>
       <c r="D24" s="49"/>
       <c r="E24" s="51"/>
     </row>
-    <row r="25" ht="15.75" spans="3:5">
+    <row r="25" spans="3:5">
       <c r="C25" s="49"/>
       <c r="D25" s="49"/>
       <c r="E25" s="51"/>
     </row>
-    <row r="26" ht="15.75" spans="3:5">
+    <row r="26" spans="3:5">
       <c r="C26" s="49"/>
       <c r="D26" s="49"/>
       <c r="E26" s="51"/>
     </row>
-    <row r="27" ht="15.75" spans="3:5">
+    <row r="27" spans="3:5">
       <c r="C27" s="49"/>
       <c r="D27" s="49"/>
       <c r="E27" s="51"/>
     </row>
-    <row r="28" ht="15.75" spans="3:5">
+    <row r="28" spans="3:5">
       <c r="C28" s="49"/>
       <c r="D28" s="49"/>
       <c r="E28" s="51"/>
     </row>
-    <row r="29" ht="15.75" spans="3:5">
+    <row r="29" spans="3:5">
       <c r="C29" s="49"/>
       <c r="D29" s="49"/>
       <c r="E29" s="51"/>
     </row>
-    <row r="30" ht="15.75" spans="3:5">
+    <row r="30" spans="3:5">
       <c r="C30" s="49"/>
       <c r="E30" s="51"/>
     </row>
-    <row r="31" ht="15.75" spans="3:5">
+    <row r="31" spans="3:5">
       <c r="C31" s="49"/>
       <c r="D31" s="49"/>
       <c r="E31" s="51"/>
@@ -31354,216 +31438,216 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="A1" sqref="A1:H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="7" t="s">
+      <c r="C1" s="3"/>
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="5" t="s">
         <v>1022</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="7" t="s">
         <v>1023</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="12" t="s">
+      <c r="C2" s="8"/>
+      <c r="D2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="10" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="7">
         <v>2</v>
       </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="15"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
+      <c r="A4" s="12"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="14" t="s">
         <v>1024</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="14" t="s">
         <v>974</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="15" t="s">
         <v>1025</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="E5" s="15" t="s">
         <v>1010</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="21" t="s">
+      <c r="D6" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="21" t="s">
+      <c r="E6" s="18" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="15"/>
-      <c r="B7" s="15" t="s">
+      <c r="A7" s="12"/>
+      <c r="B7" s="12" t="s">
         <v>1026</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="12" t="s">
         <v>974</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="12" t="s">
         <v>1027</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="E7" s="12" t="s">
         <v>1028</v>
       </c>
     </row>
     <row r="8" ht="16.5" spans="1:5">
-      <c r="A8" s="15"/>
-      <c r="B8" s="15">
+      <c r="A8" s="12"/>
+      <c r="B8" s="12">
         <v>1</v>
       </c>
-      <c r="C8" s="15">
+      <c r="C8" s="12">
         <v>1</v>
       </c>
-      <c r="D8" s="22">
+      <c r="D8" s="19">
         <v>80</v>
       </c>
-      <c r="E8" s="23" t="s">
+      <c r="E8" s="20" t="s">
         <v>1029</v>
       </c>
     </row>
     <row r="9" ht="16.5" spans="1:5">
-      <c r="A9" s="15"/>
-      <c r="B9" s="15">
+      <c r="A9" s="12"/>
+      <c r="B9" s="12">
         <v>1</v>
       </c>
-      <c r="C9" s="15">
+      <c r="C9" s="12">
         <v>2</v>
       </c>
-      <c r="D9" s="22">
+      <c r="D9" s="19">
         <v>130</v>
       </c>
-      <c r="E9" s="23" t="s">
+      <c r="E9" s="20" t="s">
         <v>1030</v>
       </c>
     </row>
     <row r="10" ht="16.5" spans="1:5">
-      <c r="A10" s="15"/>
-      <c r="B10" s="15">
+      <c r="A10" s="12"/>
+      <c r="B10" s="12">
         <v>1</v>
       </c>
-      <c r="C10" s="15">
+      <c r="C10" s="12">
         <v>3</v>
       </c>
-      <c r="D10" s="22">
+      <c r="D10" s="19">
         <v>190</v>
       </c>
-      <c r="E10" s="23" t="s">
+      <c r="E10" s="20" t="s">
         <v>1031</v>
       </c>
     </row>
     <row r="11" ht="16.5" spans="1:5">
-      <c r="A11" s="15"/>
-      <c r="B11" s="15">
+      <c r="A11" s="12"/>
+      <c r="B11" s="12">
         <v>7</v>
       </c>
-      <c r="C11" s="15">
+      <c r="C11" s="12">
         <v>1</v>
       </c>
-      <c r="D11" s="22">
+      <c r="D11" s="19">
         <v>80</v>
       </c>
-      <c r="E11" s="23" t="s">
+      <c r="E11" s="20" t="s">
         <v>1029</v>
       </c>
     </row>
     <row r="12" ht="16.5" spans="1:5">
-      <c r="A12" s="15"/>
-      <c r="B12" s="15">
+      <c r="A12" s="12"/>
+      <c r="B12" s="12">
         <v>7</v>
       </c>
-      <c r="C12" s="15">
+      <c r="C12" s="12">
         <v>2</v>
       </c>
-      <c r="D12" s="22">
+      <c r="D12" s="19">
         <v>130</v>
       </c>
-      <c r="E12" s="23" t="s">
+      <c r="E12" s="20" t="s">
         <v>1030</v>
       </c>
     </row>
     <row r="13" ht="16.5" spans="1:5">
-      <c r="A13" s="15"/>
-      <c r="B13" s="15">
+      <c r="A13" s="12"/>
+      <c r="B13" s="12">
         <v>7</v>
       </c>
-      <c r="C13" s="15">
+      <c r="C13" s="12">
         <v>3</v>
       </c>
-      <c r="D13" s="22">
+      <c r="D13" s="19">
         <v>190</v>
       </c>
-      <c r="E13" s="23" t="s">
+      <c r="E13" s="20" t="s">
         <v>1032</v>
       </c>
     </row>
-    <row r="14" ht="15.75" spans="1:5">
-      <c r="A14" s="15"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
+    <row r="14" spans="1:5">
+      <c r="A14" s="12"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
       <c r="D14" s="24"/>
       <c r="E14" s="25"/>
     </row>
-    <row r="15" ht="15.75" spans="1:5">
-      <c r="A15" s="15"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
+    <row r="15" spans="1:5">
+      <c r="A15" s="12"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
       <c r="D15" s="24"/>
       <c r="E15" s="25"/>
     </row>
-    <row r="16" ht="15.75" spans="1:5">
-      <c r="A16" s="15"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
+    <row r="16" spans="1:5">
+      <c r="A16" s="12"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
       <c r="D16" s="24"/>
       <c r="E16" s="25"/>
     </row>
@@ -31587,92 +31671,92 @@
   <sheetData>
     <row r="16" ht="14.25"/>
     <row r="17" ht="14.25" spans="5:5">
-      <c r="E17" s="1" t="s">
+      <c r="E17" s="21" t="s">
         <v>1033</v>
       </c>
     </row>
     <row r="18" ht="15" spans="4:5">
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="22" t="s">
         <v>1034</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E18" s="23" t="s">
         <v>1035</v>
       </c>
     </row>
     <row r="19" ht="15" spans="4:5">
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="22" t="s">
         <v>1036</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E19" s="21" t="s">
         <v>1037</v>
       </c>
     </row>
     <row r="20" ht="15" spans="4:5">
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="22" t="s">
         <v>1038</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E20" s="21" t="s">
         <v>1039</v>
       </c>
     </row>
     <row r="21" ht="15" spans="4:5">
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="22" t="s">
         <v>1040</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E21" s="21" t="s">
         <v>1041</v>
       </c>
     </row>
     <row r="22" ht="15" spans="4:5">
-      <c r="D22" s="2" t="s">
+      <c r="D22" s="22" t="s">
         <v>1042</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="E22" s="21" t="s">
         <v>1043</v>
       </c>
     </row>
     <row r="23" ht="15" spans="4:5">
-      <c r="D23" s="2" t="s">
+      <c r="D23" s="22" t="s">
         <v>1044</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="E23" s="21" t="s">
         <v>1045</v>
       </c>
     </row>
     <row r="24" ht="15" spans="4:5">
-      <c r="D24" s="2" t="s">
+      <c r="D24" s="22" t="s">
         <v>1046</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="E24" s="23" t="s">
         <v>1047</v>
       </c>
     </row>
     <row r="25" ht="15" spans="4:5">
-      <c r="D25" s="2" t="s">
+      <c r="D25" s="22" t="s">
         <v>1048</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="E25" s="23" t="s">
         <v>1049</v>
       </c>
     </row>
     <row r="26" ht="15" spans="4:5">
-      <c r="D26" s="2" t="s">
+      <c r="D26" s="22" t="s">
         <v>1050</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="E26" s="23" t="s">
         <v>1051</v>
       </c>
     </row>
     <row r="27" ht="15" spans="4:5">
-      <c r="D27" s="2" t="s">
+      <c r="D27" s="22" t="s">
         <v>1052</v>
       </c>
-      <c r="E27" s="3" t="s">
+      <c r="E27" s="23" t="s">
         <v>1053</v>
       </c>
     </row>
     <row r="28" ht="14.25" spans="5:5">
-      <c r="E28" s="3" t="s">
+      <c r="E28" s="23" t="s">
         <v>1054</v>
       </c>
     </row>
@@ -31680,4 +31764,153 @@
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C2" s="8"/>
+      <c r="D2" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="7">
+        <v>1</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="12"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="12"/>
+      <c r="B7" s="12" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+    </row>
+    <row r="8" ht="16.5" spans="1:5">
+      <c r="A8" s="12"/>
+      <c r="B8" s="12">
+        <v>1</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>1058</v>
+      </c>
+      <c r="D8" s="19"/>
+      <c r="E8" s="20"/>
+    </row>
+    <row r="9" ht="16.5" spans="1:5">
+      <c r="A9" s="12"/>
+      <c r="B9" s="12">
+        <v>2</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>1059</v>
+      </c>
+      <c r="D9" s="19"/>
+      <c r="E9" s="20"/>
+    </row>
+    <row r="10" ht="16.5" spans="1:5">
+      <c r="A10" s="12"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="20"/>
+    </row>
+    <row r="11" ht="16.5" spans="1:5">
+      <c r="A11" s="12"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="20"/>
+    </row>
+    <row r="12" ht="16.5" spans="1:5">
+      <c r="A12" s="12"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="20"/>
+    </row>
+    <row r="13" ht="16.5" spans="1:5">
+      <c r="A13" s="12"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="20"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
 </file>